--- a/hard_2.xlsx
+++ b/hard_2.xlsx
@@ -32,13 +32,13 @@
     <t>Результат сравнения</t>
   </si>
   <si>
-    <t>привет</t>
+    <t>poiouy</t>
   </si>
   <si>
-    <t>покаа</t>
+    <t>ytuuio</t>
   </si>
   <si>
-    <t>приветпокаа</t>
+    <t>poiouyytuuio</t>
   </si>
   <si>
     <t>Строки не идентичны</t>
@@ -93,42 +93,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="n" s="0">
         <v>6.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>5.0</v>
+      <c r="D2" t="n" s="0">
+        <v>6.0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>9</v>
       </c>
     </row>

--- a/hard_2.xlsx
+++ b/hard_2.xlsx
@@ -32,13 +32,13 @@
     <t>Результат сравнения</t>
   </si>
   <si>
-    <t>poiouy</t>
+    <t>рлкелзкерлщреклщрекзрлещзлеелкрерлкдерклдерклерклдрелздрзелдеркзлдеркздлредзлекрздлкедберкдб</t>
   </si>
   <si>
-    <t>ytuuio</t>
+    <t>лукплоульукькупьпукькпькуплькпульлукпльукпьлкупдьлкпдукьудлпкпдьулкупьдлкудьлпьдклупьдлпукьдльдулкпкупдьл</t>
   </si>
   <si>
-    <t>poiouyytuuio</t>
+    <t>рлкелзкерлщреклщрекзрлещзлеелкрерлкдерклдерклерклдрелздрзелдеркзлдеркздлредзлекрздлкедберкдблукплоульукькупьпукькпькуплькпульлукпльукпьлкупдьлкпдукьудлпкпдьулкупьдлкудьлпьдклупьдлпукьдльдулкпкупдьл</t>
   </si>
   <si>
     <t>Строки не идентичны</t>
@@ -120,10 +120,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>6.0</v>
+        <v>92.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>6.0</v>
+        <v>105.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>8</v>
